--- a/data/concentration_corrigee.xlsx
+++ b/data/concentration_corrigee.xlsx
@@ -1144,211 +1144,211 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2551.416224155023</v>
+        <v>8933.780534648591</v>
       </c>
       <c r="C3" t="n">
-        <v>4359.180136982419</v>
+        <v>6919530.141672092</v>
       </c>
       <c r="D3" t="n">
-        <v>19501.93916482015</v>
+        <v>22062289.16950983</v>
       </c>
       <c r="E3" t="n">
-        <v>-77893.41361012352</v>
+        <v>-75333063.60543388</v>
       </c>
       <c r="F3" t="n">
-        <v>16836.19249061543</v>
+        <v>19396542.4953051</v>
       </c>
       <c r="G3" t="n">
-        <v>-109970.666700529</v>
+        <v>-107410316.6958393</v>
       </c>
       <c r="H3" t="n">
-        <v>-8035.621690119259</v>
+        <v>-5475271.685429589</v>
       </c>
       <c r="I3" t="n">
-        <v>18716.90274549934</v>
+        <v>21277252.75018901</v>
       </c>
       <c r="J3" t="n">
-        <v>19236.10014669419</v>
+        <v>21796450.15138387</v>
       </c>
       <c r="K3" t="n">
-        <v>20788.66387859545</v>
+        <v>23349013.88328512</v>
       </c>
       <c r="L3" t="n">
-        <v>21799.13961649876</v>
+        <v>24359489.62118843</v>
       </c>
       <c r="M3" t="n">
-        <v>20788.17022970482</v>
+        <v>23348520.23439449</v>
       </c>
       <c r="N3" t="n">
-        <v>22162.94429521422</v>
+        <v>24723294.29990389</v>
       </c>
       <c r="O3" t="n">
-        <v>20198.82985436404</v>
+        <v>22759179.85905372</v>
       </c>
       <c r="P3" t="n">
-        <v>22806.97592173874</v>
+        <v>25367325.92642842</v>
       </c>
       <c r="Q3" t="n">
-        <v>23337.24153629557</v>
+        <v>25897591.54098525</v>
       </c>
       <c r="R3" t="n">
-        <v>23305.35762815855</v>
+        <v>25865707.63284823</v>
       </c>
       <c r="S3" t="n">
-        <v>23466.71718592298</v>
+        <v>26027067.19061266</v>
       </c>
       <c r="T3" t="n">
-        <v>23183.21121087112</v>
+        <v>25743561.2155608</v>
       </c>
       <c r="U3" t="n">
-        <v>24055.32582564261</v>
+        <v>26615675.83033229</v>
       </c>
       <c r="V3" t="n">
-        <v>19792.34101294706</v>
+        <v>21932222.39059982</v>
       </c>
       <c r="W3" t="n">
-        <v>20790.18359862262</v>
+        <v>22930064.97627537</v>
       </c>
       <c r="X3" t="n">
-        <v>20329.03049896938</v>
+        <v>22468911.87662213</v>
       </c>
       <c r="Y3" t="n">
-        <v>20426.99046100341</v>
+        <v>22566871.83865616</v>
       </c>
       <c r="Z3" t="n">
-        <v>19678.16720058592</v>
+        <v>21818048.57823867</v>
       </c>
       <c r="AA3" t="n">
-        <v>18133.0976762197</v>
+        <v>20272979.05387245</v>
       </c>
       <c r="AB3" t="n">
-        <v>19099.44608622277</v>
+        <v>21239327.46387552</v>
       </c>
       <c r="AC3" t="n">
-        <v>20517.07741777272</v>
+        <v>22656958.79542547</v>
       </c>
       <c r="AD3" t="n">
-        <v>20157.60927493994</v>
+        <v>22297490.65259269</v>
       </c>
       <c r="AE3" t="n">
-        <v>21159.98630840569</v>
+        <v>23299867.68605844</v>
       </c>
       <c r="AF3" t="n">
-        <v>20770.29080377051</v>
+        <v>22910172.18142326</v>
       </c>
       <c r="AG3" t="n">
-        <v>20386.8603842811</v>
+        <v>22256230.33036638</v>
       </c>
       <c r="AH3" t="n">
-        <v>14827.07777458041</v>
+        <v>16696447.7206657</v>
       </c>
       <c r="AI3" t="n">
-        <v>19156.24775189257</v>
+        <v>21025617.69797786</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18496.15878673907</v>
+        <v>20365528.73282435</v>
       </c>
       <c r="AK3" t="n">
-        <v>20663.04013767562</v>
+        <v>22532410.0837609</v>
       </c>
       <c r="AL3" t="n">
-        <v>21183.14199009059</v>
+        <v>23052511.93617588</v>
       </c>
       <c r="AM3" t="n">
-        <v>21306.1171950065</v>
+        <v>23175487.14109178</v>
       </c>
       <c r="AN3" t="n">
-        <v>21636.89282410218</v>
+        <v>23506262.77018746</v>
       </c>
       <c r="AO3" t="n">
-        <v>22584.08305959991</v>
+        <v>24453453.0056852</v>
       </c>
       <c r="AP3" t="n">
-        <v>21097.6292470368</v>
+        <v>22966999.19312208</v>
       </c>
       <c r="AQ3" t="n">
-        <v>39955.86198306675</v>
+        <v>41825231.92915202</v>
       </c>
       <c r="AR3" t="n">
-        <v>-1769.07192718925</v>
+        <v>13902.12848992817</v>
       </c>
       <c r="AS3" t="n">
-        <v>4679.991519485638</v>
+        <v>6462965.575164818</v>
       </c>
       <c r="AT3" t="n">
-        <v>16345.96098389141</v>
+        <v>18128935.03957059</v>
       </c>
       <c r="AU3" t="n">
-        <v>18057.30206199216</v>
+        <v>19840276.11767134</v>
       </c>
       <c r="AV3" t="n">
-        <v>16479.78193518221</v>
+        <v>18262755.99086139</v>
       </c>
       <c r="AW3" t="n">
-        <v>21008.71297744746</v>
+        <v>22791687.03312664</v>
       </c>
       <c r="AX3" t="n">
-        <v>18656.95194530829</v>
+        <v>20439926.00098747</v>
       </c>
       <c r="AY3" t="n">
-        <v>21090.80972857524</v>
+        <v>22873783.78425442</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21279.42527930079</v>
+        <v>23062399.33497998</v>
       </c>
       <c r="BA3" t="n">
-        <v>22443.55597443417</v>
+        <v>24226530.03011335</v>
       </c>
       <c r="BB3" t="n">
-        <v>16605.26441879333</v>
+        <v>18388238.47447252</v>
       </c>
       <c r="BC3" t="n">
-        <v>21090.90419016187</v>
+        <v>22873878.24584105</v>
       </c>
       <c r="BD3" t="n">
-        <v>20982.42203356452</v>
+        <v>22765396.0892437</v>
       </c>
       <c r="BE3" t="n">
-        <v>17772.75050827278</v>
+        <v>18735850.12006598</v>
       </c>
       <c r="BF3" t="n">
-        <v>18627.85684155957</v>
+        <v>19590956.45335276</v>
       </c>
       <c r="BG3" t="n">
-        <v>17655.35835176203</v>
+        <v>18618457.96355522</v>
       </c>
       <c r="BH3" t="n">
-        <v>17950.40308615575</v>
+        <v>18913502.69794894</v>
       </c>
       <c r="BI3" t="n">
-        <v>19803.08712132698</v>
+        <v>20766186.73312018</v>
       </c>
       <c r="BJ3" t="n">
-        <v>18963.22345243571</v>
+        <v>19926323.0642289</v>
       </c>
       <c r="BK3" t="n">
-        <v>18628.61975366704</v>
+        <v>19591719.36546024</v>
       </c>
       <c r="BL3" t="n">
-        <v>16779.28701947986</v>
+        <v>17742386.63127305</v>
       </c>
       <c r="BM3" t="n">
-        <v>-156.0595694129544</v>
+        <v>807040.0423802367</v>
       </c>
       <c r="BN3" t="n">
-        <v>-130.6459739258329</v>
+        <v>832453.6378673582</v>
       </c>
       <c r="BO3" t="n">
-        <v>-275.2900499590819</v>
+        <v>687809.5618341092</v>
       </c>
       <c r="BP3" t="n">
-        <v>-165.3514079811325</v>
+        <v>797748.2038120585</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-1072.687564737599</v>
+        <v>12912.67858002334</v>
       </c>
       <c r="BR3" t="n">
-        <v>4816.674182393546</v>
+        <v>5902274.425711168</v>
       </c>
     </row>
     <row r="4">
@@ -1358,211 +1358,211 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2649.51840966967</v>
+        <v>16125.560397331</v>
       </c>
       <c r="C4" t="n">
-        <v>678.2282791599246</v>
+        <v>3343872.249226926</v>
       </c>
       <c r="D4" t="n">
-        <v>-2668.032690095056</v>
+        <v>-2388.720028055556</v>
       </c>
       <c r="E4" t="n">
-        <v>-2669.749894434646</v>
+        <v>-4105.924367645458</v>
       </c>
       <c r="F4" t="n">
-        <v>-2667.97508131208</v>
+        <v>-2331.111245079484</v>
       </c>
       <c r="G4" t="n">
-        <v>-2670.615654372537</v>
+        <v>-4971.684305536411</v>
       </c>
       <c r="H4" t="n">
-        <v>-2668.553405911608</v>
+        <v>-2909.435844607265</v>
       </c>
       <c r="I4" t="n">
-        <v>-2667.660969885359</v>
+        <v>-2016.9998183579</v>
       </c>
       <c r="J4" t="n">
-        <v>-2667.596500873633</v>
+        <v>-1952.530806632516</v>
       </c>
       <c r="K4" t="n">
-        <v>-2667.782466455496</v>
+        <v>-2138.496388495391</v>
       </c>
       <c r="L4" t="n">
-        <v>-2667.923963764621</v>
+        <v>-2279.993697619923</v>
       </c>
       <c r="M4" t="n">
-        <v>-2667.82906460743</v>
+        <v>-2185.094540428995</v>
       </c>
       <c r="N4" t="n">
-        <v>-2667.278372802801</v>
+        <v>-1634.402735800487</v>
       </c>
       <c r="O4" t="n">
-        <v>-2667.276580224886</v>
+        <v>-1632.610157885602</v>
       </c>
       <c r="P4" t="n">
-        <v>-2667.418480048295</v>
+        <v>-1774.509981294537</v>
       </c>
       <c r="Q4" t="n">
-        <v>-2667.436768823537</v>
+        <v>-1792.798756536784</v>
       </c>
       <c r="R4" t="n">
-        <v>-2667.829633444001</v>
+        <v>-2185.663377000282</v>
       </c>
       <c r="S4" t="n">
-        <v>-2667.567615831329</v>
+        <v>-1923.645764328503</v>
       </c>
       <c r="T4" t="n">
-        <v>-2667.918272559431</v>
+        <v>-2274.302492430709</v>
       </c>
       <c r="U4" t="n">
-        <v>-2668.125942641105</v>
+        <v>-2481.972574104384</v>
       </c>
       <c r="V4" t="n">
-        <v>-2155.387095449033</v>
+        <v>-2012.900761156304</v>
       </c>
       <c r="W4" t="n">
-        <v>-2155.355947256394</v>
+        <v>-1981.752568518246</v>
       </c>
       <c r="X4" t="n">
-        <v>-2155.472389825651</v>
+        <v>-2098.195137774857</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2155.330243607603</v>
+        <v>-1956.048919727015</v>
       </c>
       <c r="Z4" t="n">
-        <v>-2155.513546948625</v>
+        <v>-2139.352260748959</v>
       </c>
       <c r="AA4" t="n">
-        <v>-2155.493025508298</v>
+        <v>-2118.83082042132</v>
       </c>
       <c r="AB4" t="n">
-        <v>-2155.397222434398</v>
+        <v>-2023.027746521671</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2155.36695906313</v>
+        <v>-1992.764375253974</v>
       </c>
       <c r="AD4" t="n">
-        <v>-2155.251718177878</v>
+        <v>-1877.523490001578</v>
       </c>
       <c r="AE4" t="n">
-        <v>-2155.262582868056</v>
+        <v>-1888.388180179662</v>
       </c>
       <c r="AF4" t="n">
-        <v>-2155.004433752313</v>
+        <v>-1630.239064436386</v>
       </c>
       <c r="AG4" t="n">
-        <v>-1922.222749001161</v>
+        <v>-1945.564925007083</v>
       </c>
       <c r="AH4" t="n">
-        <v>-1921.710265195485</v>
+        <v>-1433.081119330482</v>
       </c>
       <c r="AI4" t="n">
-        <v>-1919.010063518739</v>
+        <v>1267.120557415324</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-1915.820532828238</v>
+        <v>4456.651247916485</v>
       </c>
       <c r="AK4" t="n">
-        <v>-1921.443495724349</v>
+        <v>-1166.31164819459</v>
       </c>
       <c r="AL4" t="n">
-        <v>-1918.76716799756</v>
+        <v>1510.016078593856</v>
       </c>
       <c r="AM4" t="n">
-        <v>-1919.560068838507</v>
+        <v>717.1152376467621</v>
       </c>
       <c r="AN4" t="n">
-        <v>-1916.823782328417</v>
+        <v>3453.401747736988</v>
       </c>
       <c r="AO4" t="n">
-        <v>-1915.102383004335</v>
+        <v>5174.801071819005</v>
       </c>
       <c r="AP4" t="n">
-        <v>-1913.711958355176</v>
+        <v>6565.225720978138</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-1902.828109497642</v>
+        <v>17449.07457851243</v>
       </c>
       <c r="AR4" t="n">
-        <v>-1724.361565021727</v>
+        <v>15152.0505271759</v>
       </c>
       <c r="AS4" t="n">
-        <v>1310.309293783621</v>
+        <v>3049822.909332524</v>
       </c>
       <c r="AT4" t="n">
-        <v>-1737.82425856473</v>
+        <v>1689.356984173488</v>
       </c>
       <c r="AU4" t="n">
-        <v>-1738.208171736855</v>
+        <v>1305.443812047826</v>
       </c>
       <c r="AV4" t="n">
-        <v>-1737.717679973887</v>
+        <v>1795.935575016403</v>
       </c>
       <c r="AW4" t="n">
-        <v>-1738.687582992286</v>
+        <v>826.0325566169597</v>
       </c>
       <c r="AX4" t="n">
-        <v>-1740.235477059719</v>
+        <v>-721.8615108159763</v>
       </c>
       <c r="AY4" t="n">
-        <v>-1740.146992499756</v>
+        <v>-633.3769508526971</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-1740.442856919447</v>
+        <v>-929.2413705432906</v>
       </c>
       <c r="BA4" t="n">
-        <v>-1740.525648887636</v>
+        <v>-1012.033338733183</v>
       </c>
       <c r="BB4" t="n">
-        <v>-1737.199141104446</v>
+        <v>2314.474444457065</v>
       </c>
       <c r="BC4" t="n">
-        <v>-1740.51808535943</v>
+        <v>-1004.469810526821</v>
       </c>
       <c r="BD4" t="n">
-        <v>-1740.074705860519</v>
+        <v>-561.0903116160923</v>
       </c>
       <c r="BE4" t="n">
-        <v>-1566.969665770456</v>
+        <v>-548.1066444326924</v>
       </c>
       <c r="BF4" t="n">
-        <v>-1566.598708546343</v>
+        <v>-177.1494203195907</v>
       </c>
       <c r="BG4" t="n">
-        <v>-1566.761514716663</v>
+        <v>-339.9555906401704</v>
       </c>
       <c r="BH4" t="n">
-        <v>-1566.267326192851</v>
+        <v>154.2329331723611</v>
       </c>
       <c r="BI4" t="n">
-        <v>-1566.047453289055</v>
+        <v>374.1058369678515</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-1565.523612984855</v>
+        <v>897.9461411684053</v>
       </c>
       <c r="BK4" t="n">
-        <v>-1565.38586221879</v>
+        <v>1035.696907233029</v>
       </c>
       <c r="BL4" t="n">
-        <v>-1567.118429216559</v>
+        <v>-696.8700905362167</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1568.006556089843</v>
+        <v>-1584.996963819732</v>
       </c>
       <c r="BN4" t="n">
-        <v>-1567.916303998249</v>
+        <v>-1494.744872225925</v>
       </c>
       <c r="BO4" t="n">
-        <v>-1567.942646489731</v>
+        <v>-1521.087363708316</v>
       </c>
       <c r="BP4" t="n">
-        <v>-1568.12583111214</v>
+        <v>-1704.271986116491</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-1511.195812006374</v>
+        <v>15154.95007295234</v>
       </c>
       <c r="BR4" t="n">
-        <v>1450.070725698115</v>
+        <v>2976421.487777442</v>
       </c>
     </row>
     <row r="5">
@@ -1572,211 +1572,211 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1906.919225903695</v>
+        <v>27945.78375796835</v>
       </c>
       <c r="C5" t="n">
-        <v>10940.36227192057</v>
+        <v>12875227.28158223</v>
       </c>
       <c r="D5" t="n">
-        <v>-1929.527092530718</v>
+        <v>5337.91713094493</v>
       </c>
       <c r="E5" t="n">
-        <v>-1965.467432469215</v>
+        <v>-30602.42280755128</v>
       </c>
       <c r="F5" t="n">
-        <v>-1926.261000057778</v>
+        <v>8604.009603885263</v>
       </c>
       <c r="G5" t="n">
-        <v>-2088.166571693125</v>
+        <v>-153301.5620314614</v>
       </c>
       <c r="H5" t="n">
-        <v>-1950.27023044734</v>
+        <v>-15405.22078567641</v>
       </c>
       <c r="I5" t="n">
-        <v>-1870.484339855962</v>
+        <v>64380.66980570135</v>
       </c>
       <c r="J5" t="n">
-        <v>-1865.337772760945</v>
+        <v>69527.23690071887</v>
       </c>
       <c r="K5" t="n">
-        <v>-1924.172568841924</v>
+        <v>10692.44081973905</v>
       </c>
       <c r="L5" t="n">
-        <v>-1918.304005435793</v>
+        <v>16561.00422587047</v>
       </c>
       <c r="M5" t="n">
-        <v>-1920.360235244096</v>
+        <v>14504.77441756695</v>
       </c>
       <c r="N5" t="n">
-        <v>-1898.752544803405</v>
+        <v>36112.46485825849</v>
       </c>
       <c r="O5" t="n">
-        <v>-1882.170281422163</v>
+        <v>52694.72823949996</v>
       </c>
       <c r="P5" t="n">
-        <v>-1859.290869528892</v>
+        <v>75574.14013277125</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1851.551039718859</v>
+        <v>83313.96994280441</v>
       </c>
       <c r="R5" t="n">
-        <v>-1915.033626802249</v>
+        <v>19831.38285941439</v>
       </c>
       <c r="S5" t="n">
-        <v>-1894.846610394165</v>
+        <v>40018.39926749799</v>
       </c>
       <c r="T5" t="n">
-        <v>-1931.460089595564</v>
+        <v>3404.920066099608</v>
       </c>
       <c r="U5" t="n">
-        <v>-1932.23622791869</v>
+        <v>2628.781742973204</v>
       </c>
       <c r="V5" t="n">
-        <v>-1654.010797054029</v>
+        <v>3301.95881455514</v>
       </c>
       <c r="W5" t="n">
-        <v>-1649.616699536099</v>
+        <v>7696.056332485251</v>
       </c>
       <c r="X5" t="n">
-        <v>-1653.523865024993</v>
+        <v>3788.890843591958</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1651.444747216832</v>
+        <v>5868.00865175228</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1651.823898255296</v>
+        <v>5488.857613288857</v>
       </c>
       <c r="AA5" t="n">
-        <v>-1648.503646460647</v>
+        <v>8809.109407937287</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1643.712641040909</v>
+        <v>13600.11482767524</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1642.664982677207</v>
+        <v>14647.77319137797</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1651.993980201504</v>
+        <v>5318.775667080798</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1650.230794694597</v>
+        <v>7081.961173987765</v>
       </c>
       <c r="AF5" t="n">
-        <v>-1628.135092792302</v>
+        <v>29177.66307628202</v>
       </c>
       <c r="AG5" t="n">
-        <v>-1501.657991461967</v>
+        <v>1865.399263330993</v>
       </c>
       <c r="AH5" t="n">
-        <v>-1500.157179579958</v>
+        <v>3366.211145339496</v>
       </c>
       <c r="AI5" t="n">
-        <v>-1488.46708670285</v>
+        <v>15056.30402244744</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-1480.327385964009</v>
+        <v>23196.00476128884</v>
       </c>
       <c r="AK5" t="n">
-        <v>-1497.473844808045</v>
+        <v>6049.545917252648</v>
       </c>
       <c r="AL5" t="n">
-        <v>-1442.75065413796</v>
+        <v>60772.73658733759</v>
       </c>
       <c r="AM5" t="n">
-        <v>-1489.333859196546</v>
+        <v>14189.53152875188</v>
       </c>
       <c r="AN5" t="n">
-        <v>-1476.566447459391</v>
+        <v>26956.94326590615</v>
       </c>
       <c r="AO5" t="n">
-        <v>-1479.128122099078</v>
+        <v>24395.26862621941</v>
       </c>
       <c r="AP5" t="n">
-        <v>-1479.174263387612</v>
+        <v>24349.12733768532</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-1434.683453428536</v>
+        <v>68839.93729676152</v>
       </c>
       <c r="AR5" t="n">
-        <v>-1485.626124330927</v>
+        <v>26321.22892638004</v>
       </c>
       <c r="AS5" t="n">
-        <v>10790.59011713438</v>
+        <v>12302537.47039169</v>
       </c>
       <c r="AT5" t="n">
-        <v>-1412.675405746741</v>
+        <v>99271.94751056613</v>
       </c>
       <c r="AU5" t="n">
-        <v>-1169.973432460146</v>
+        <v>341973.9207971611</v>
       </c>
       <c r="AV5" t="n">
-        <v>-1005.823736457776</v>
+        <v>506123.6167995307</v>
       </c>
       <c r="AW5" t="n">
-        <v>-1470.018199792014</v>
+        <v>41929.15346529214</v>
       </c>
       <c r="AX5" t="n">
-        <v>-1193.328955336232</v>
+        <v>318618.397921075</v>
       </c>
       <c r="AY5" t="n">
-        <v>-1084.143392253983</v>
+        <v>427803.9610033237</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-947.3007433461476</v>
+        <v>564646.6099111593</v>
       </c>
       <c r="BA5" t="n">
-        <v>-893.0137521615803</v>
+        <v>618933.6010957264</v>
       </c>
       <c r="BB5" t="n">
-        <v>-1490.693724522668</v>
+        <v>21253.62873463834</v>
       </c>
       <c r="BC5" t="n">
-        <v>-1500.835494882203</v>
+        <v>11111.85837510398</v>
       </c>
       <c r="BD5" t="n">
-        <v>-1504.389542037743</v>
+        <v>7557.811219563569</v>
       </c>
       <c r="BE5" t="n">
-        <v>-1385.503534646396</v>
+        <v>7072.102137112338</v>
       </c>
       <c r="BF5" t="n">
-        <v>-1388.96423377307</v>
+        <v>3611.403010438461</v>
       </c>
       <c r="BG5" t="n">
-        <v>-1389.082095280964</v>
+        <v>3493.541502544566</v>
       </c>
       <c r="BH5" t="n">
-        <v>-1389.614136990632</v>
+        <v>2961.499792876729</v>
       </c>
       <c r="BI5" t="n">
-        <v>-1389.171091420435</v>
+        <v>3404.545363073609</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-1375.54266552745</v>
+        <v>17032.97125605817</v>
       </c>
       <c r="BK5" t="n">
-        <v>-1385.08705365562</v>
+        <v>7488.583127887919</v>
       </c>
       <c r="BL5" t="n">
-        <v>-1335.965610010553</v>
+        <v>56610.0267729554</v>
       </c>
       <c r="BM5" t="n">
-        <v>-713.1149088229782</v>
+        <v>679460.7279605301</v>
       </c>
       <c r="BN5" t="n">
-        <v>-909.6618738753778</v>
+        <v>482913.7629081305</v>
       </c>
       <c r="BO5" t="n">
-        <v>-907.4488276153352</v>
+        <v>485126.8091681731</v>
       </c>
       <c r="BP5" t="n">
-        <v>-816.2070059790109</v>
+        <v>576368.6308044974</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-1311.673008418921</v>
+        <v>26145.49139460041</v>
       </c>
       <c r="BR5" t="n">
-        <v>10628.17919871167</v>
+        <v>11965997.6985252</v>
       </c>
     </row>
     <row r="6">
@@ -1786,211 +1786,211 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1764.451135026647</v>
+        <v>23339.34211343009</v>
       </c>
       <c r="C6" t="n">
-        <v>10612.81013657045</v>
+        <v>12400600.61371052</v>
       </c>
       <c r="D6" t="n">
-        <v>-1781.393086307278</v>
+        <v>6397.390832799169</v>
       </c>
       <c r="E6" t="n">
-        <v>-1822.459427896375</v>
+        <v>-34668.95075629874</v>
       </c>
       <c r="F6" t="n">
-        <v>-1778.239202446005</v>
+        <v>9551.274694071548</v>
       </c>
       <c r="G6" t="n">
-        <v>-1945.254634414455</v>
+        <v>-157464.1572743786</v>
       </c>
       <c r="H6" t="n">
-        <v>-1802.826543674465</v>
+        <v>-15036.06653438766</v>
       </c>
       <c r="I6" t="n">
-        <v>-1723.377135415139</v>
+        <v>64413.34172493814</v>
       </c>
       <c r="J6" t="n">
-        <v>-1718.354222056274</v>
+        <v>69436.25508380315</v>
       </c>
       <c r="K6" t="n">
-        <v>-1778.518340678949</v>
+        <v>9272.136461127668</v>
       </c>
       <c r="L6" t="n">
-        <v>-1774.143021658985</v>
+        <v>13647.45548109143</v>
       </c>
       <c r="M6" t="n">
-        <v>-1776.238647275282</v>
+        <v>11551.82986479507</v>
       </c>
       <c r="N6" t="n">
-        <v>-1752.015821615795</v>
+        <v>35774.65552428204</v>
       </c>
       <c r="O6" t="n">
-        <v>-1735.251779975059</v>
+        <v>52538.69716501739</v>
       </c>
       <c r="P6" t="n">
-        <v>-1709.33575560625</v>
+        <v>78454.72153382668</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1703.150298154111</v>
+        <v>84640.17898596619</v>
       </c>
       <c r="R6" t="n">
-        <v>-1768.517362647881</v>
+        <v>19273.11449219579</v>
       </c>
       <c r="S6" t="n">
-        <v>-1749.607603704348</v>
+        <v>38182.87343572907</v>
       </c>
       <c r="T6" t="n">
-        <v>-1787.237591501331</v>
+        <v>552.8856387461935</v>
       </c>
       <c r="U6" t="n">
-        <v>-1788.39029496501</v>
+        <v>-599.8178249330592</v>
       </c>
       <c r="V6" t="n">
-        <v>-1468.17585504799</v>
+        <v>3953.10829943917</v>
       </c>
       <c r="W6" t="n">
-        <v>-1464.387571628117</v>
+        <v>7741.391719312336</v>
       </c>
       <c r="X6" t="n">
-        <v>-1467.170157258194</v>
+        <v>4958.80608923547</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1466.490913373324</v>
+        <v>5638.049974105935</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1465.48928052435</v>
+        <v>6639.682823079389</v>
       </c>
       <c r="AA6" t="n">
-        <v>-1462.311488900565</v>
+        <v>9817.474446864546</v>
       </c>
       <c r="AB6" t="n">
-        <v>-1456.496190435225</v>
+        <v>15632.77291220483</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1454.878954066249</v>
+        <v>17250.00928118098</v>
       </c>
       <c r="AD6" t="n">
-        <v>-1464.033994091125</v>
+        <v>8094.969256304192</v>
       </c>
       <c r="AE6" t="n">
-        <v>-1465.083668714178</v>
+        <v>7045.294633251846</v>
       </c>
       <c r="AF6" t="n">
-        <v>-1443.724533450662</v>
+        <v>28404.42989676809</v>
       </c>
       <c r="AG6" t="n">
-        <v>-1349.167762790962</v>
+        <v>2463.414565332625</v>
       </c>
       <c r="AH6" t="n">
-        <v>-1347.872793385089</v>
+        <v>3758.383971205858</v>
       </c>
       <c r="AI6" t="n">
-        <v>-1335.517778439282</v>
+        <v>16113.3989170126</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-1326.777203973062</v>
+        <v>24853.97338323246</v>
       </c>
       <c r="AK6" t="n">
-        <v>-1343.104078620329</v>
+        <v>8527.098735965266</v>
       </c>
       <c r="AL6" t="n">
-        <v>-1287.632285794005</v>
+        <v>63998.89156228965</v>
       </c>
       <c r="AM6" t="n">
-        <v>-1335.809560639713</v>
+        <v>15821.61671658144</v>
       </c>
       <c r="AN6" t="n">
-        <v>-1322.243536073004</v>
+        <v>29387.64128329073</v>
       </c>
       <c r="AO6" t="n">
-        <v>-1324.866309832641</v>
+        <v>26764.86752365334</v>
       </c>
       <c r="AP6" t="n">
-        <v>-1324.889126702509</v>
+        <v>26742.05065378613</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-1281.547846861368</v>
+        <v>70083.33049492711</v>
       </c>
       <c r="AR6" t="n">
-        <v>-1287.241123048553</v>
+        <v>20644.87069209584</v>
       </c>
       <c r="AS6" t="n">
-        <v>10437.02552716825</v>
+        <v>11744911.5209089</v>
       </c>
       <c r="AT6" t="n">
-        <v>-1209.036280263464</v>
+        <v>98849.71347718526</v>
       </c>
       <c r="AU6" t="n">
-        <v>-961.2607425293086</v>
+        <v>346625.2512113402</v>
       </c>
       <c r="AV6" t="n">
-        <v>-798.0760333189239</v>
+        <v>509809.9604217249</v>
       </c>
       <c r="AW6" t="n">
-        <v>-1262.8789091648</v>
+        <v>45007.08457584852</v>
       </c>
       <c r="AX6" t="n">
-        <v>-983.8177040078065</v>
+        <v>324068.2897328422</v>
       </c>
       <c r="AY6" t="n">
-        <v>-875.4397488048564</v>
+        <v>432446.2449357923</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-736.0503714736326</v>
+        <v>571835.6222670162</v>
       </c>
       <c r="BA6" t="n">
-        <v>-682.6794701286642</v>
+        <v>625206.5236119846</v>
       </c>
       <c r="BB6" t="n">
-        <v>-1284.435237190174</v>
+        <v>23450.75655047517</v>
       </c>
       <c r="BC6" t="n">
-        <v>-1296.086043907655</v>
+        <v>11799.94983299347</v>
       </c>
       <c r="BD6" t="n">
-        <v>-1299.337388728741</v>
+        <v>8548.605011907735</v>
       </c>
       <c r="BE6" t="n">
-        <v>-1213.825358200667</v>
+        <v>5784.423517249591</v>
       </c>
       <c r="BF6" t="n">
-        <v>-1215.433097905006</v>
+        <v>4176.683812911416</v>
       </c>
       <c r="BG6" t="n">
-        <v>-1215.456127833702</v>
+        <v>4153.653884215249</v>
       </c>
       <c r="BH6" t="n">
-        <v>-1216.264321514397</v>
+        <v>3345.460203520124</v>
       </c>
       <c r="BI6" t="n">
-        <v>-1215.398344716634</v>
+        <v>4211.437001282566</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-1202.509626190833</v>
+        <v>17100.15552708385</v>
       </c>
       <c r="BK6" t="n">
-        <v>-1211.165014371916</v>
+        <v>8444.767346000812</v>
       </c>
       <c r="BL6" t="n">
-        <v>-1161.824106662452</v>
+        <v>57785.67505546512</v>
       </c>
       <c r="BM6" t="n">
-        <v>-520.4310735528508</v>
+        <v>699178.7081650662</v>
       </c>
       <c r="BN6" t="n">
-        <v>-730.7682971050269</v>
+        <v>488841.48461289</v>
       </c>
       <c r="BO6" t="n">
-        <v>-728.6190386698506</v>
+        <v>490990.7430480663</v>
       </c>
       <c r="BP6" t="n">
-        <v>-641.2452018457941</v>
+        <v>578364.5798721228</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-1161.311759904945</v>
+        <v>20835.03782945478</v>
       </c>
       <c r="BR6" t="n">
-        <v>10295.40037375076</v>
+        <v>11477547.17148516</v>
       </c>
     </row>
     <row r="7">
@@ -2000,211 +2000,211 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.256466703150355</v>
+        <v>15509.20304738927</v>
       </c>
       <c r="C7" t="n">
-        <v>37.07159360940939</v>
+        <v>60837.263359949</v>
       </c>
       <c r="D7" t="n">
-        <v>-23.76776329602291</v>
+        <v>-2.093545483286029</v>
       </c>
       <c r="E7" t="n">
-        <v>-23.88157654429068</v>
+        <v>-115.9067937510638</v>
       </c>
       <c r="F7" t="n">
-        <v>-23.74922242137366</v>
+        <v>16.44732916595862</v>
       </c>
       <c r="G7" t="n">
-        <v>-24.51891524332152</v>
+        <v>-753.2454927818958</v>
       </c>
       <c r="H7" t="n">
-        <v>-23.84465630420841</v>
+        <v>-78.98655366878789</v>
       </c>
       <c r="I7" t="n">
-        <v>-23.50139071458664</v>
+        <v>264.2790359529808</v>
       </c>
       <c r="J7" t="n">
-        <v>-23.42986151013648</v>
+        <v>335.8082404031454</v>
       </c>
       <c r="K7" t="n">
-        <v>-23.76089707275498</v>
+        <v>4.772677784644475</v>
       </c>
       <c r="L7" t="n">
-        <v>-23.76239144046794</v>
+        <v>3.27831007167924</v>
       </c>
       <c r="M7" t="n">
-        <v>-23.73140879606254</v>
+        <v>34.26095447708433</v>
       </c>
       <c r="N7" t="n">
-        <v>-23.62318094811983</v>
+        <v>142.4888024197933</v>
       </c>
       <c r="O7" t="n">
-        <v>-23.56072257451971</v>
+        <v>204.9471760199113</v>
       </c>
       <c r="P7" t="n">
-        <v>-23.43981185329729</v>
+        <v>325.8578972423347</v>
       </c>
       <c r="Q7" t="n">
-        <v>-23.35712814930461</v>
+        <v>408.5416012350137</v>
       </c>
       <c r="R7" t="n">
-        <v>-23.73485977995557</v>
+        <v>30.80997058404789</v>
       </c>
       <c r="S7" t="n">
-        <v>-23.64576435901402</v>
+        <v>119.9053915255994</v>
       </c>
       <c r="T7" t="n">
-        <v>-23.7817782077895</v>
+        <v>-16.10845724987465</v>
       </c>
       <c r="U7" t="n">
-        <v>-23.78555521170008</v>
+        <v>-19.8854611604569</v>
       </c>
       <c r="V7" t="n">
-        <v>-23.57032066665747</v>
+        <v>-13.25786685279145</v>
       </c>
       <c r="W7" t="n">
-        <v>-23.56694906254633</v>
+        <v>-9.886262741649626</v>
       </c>
       <c r="X7" t="n">
-        <v>-23.57478625015637</v>
+        <v>-17.72345035168982</v>
       </c>
       <c r="Y7" t="n">
-        <v>-23.57582270380439</v>
+        <v>-18.75990399971403</v>
       </c>
       <c r="Z7" t="n">
-        <v>-23.5710599762279</v>
+        <v>-13.99717642321822</v>
       </c>
       <c r="AA7" t="n">
-        <v>-23.5569962686808</v>
+        <v>0.06653112387995463</v>
       </c>
       <c r="AB7" t="n">
-        <v>-23.54213660444529</v>
+        <v>14.92619535939158</v>
       </c>
       <c r="AC7" t="n">
-        <v>-23.5358640966651</v>
+        <v>21.1987031395753</v>
       </c>
       <c r="AD7" t="n">
-        <v>-23.57573254211233</v>
+        <v>-18.66974230765716</v>
       </c>
       <c r="AE7" t="n">
-        <v>-23.57075457544775</v>
+        <v>-13.69177564307669</v>
       </c>
       <c r="AF7" t="n">
-        <v>-23.56719727676365</v>
+        <v>-10.13447695897629</v>
       </c>
       <c r="AG7" t="n">
-        <v>-26.12241840565626</v>
+        <v>-21.14984850286393</v>
       </c>
       <c r="AH7" t="n">
-        <v>-26.12207673637504</v>
+        <v>-20.80817922164496</v>
       </c>
       <c r="AI7" t="n">
-        <v>-26.1137354396275</v>
+        <v>-12.46688247410804</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-26.11390661597127</v>
+        <v>-12.63805881787297</v>
       </c>
       <c r="AK7" t="n">
-        <v>-26.09131250542423</v>
+        <v>9.956051729169115</v>
       </c>
       <c r="AL7" t="n">
-        <v>-26.07035230800769</v>
+        <v>30.91624914570675</v>
       </c>
       <c r="AM7" t="n">
-        <v>-26.11494588887678</v>
+        <v>-13.67733172337981</v>
       </c>
       <c r="AN7" t="n">
-        <v>-26.08073368574008</v>
+        <v>20.53487141332002</v>
       </c>
       <c r="AO7" t="n">
-        <v>-26.10266945943177</v>
+        <v>-1.400902278373508</v>
       </c>
       <c r="AP7" t="n">
-        <v>-26.10475310592104</v>
+        <v>-3.484548767646629</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-26.04572719985604</v>
+        <v>55.54135729735692</v>
       </c>
       <c r="AR7" t="n">
-        <v>-11.82774184807339</v>
+        <v>15997.11087351167</v>
       </c>
       <c r="AS7" t="n">
-        <v>33.02661503667809</v>
+        <v>60851.46775826317</v>
       </c>
       <c r="AT7" t="n">
-        <v>-27.68606573001322</v>
+        <v>138.7869915718363</v>
       </c>
       <c r="AU7" t="n">
-        <v>-27.26133488242569</v>
+        <v>563.5178391593594</v>
       </c>
       <c r="AV7" t="n">
-        <v>-26.99541527899676</v>
+        <v>829.4374425882972</v>
       </c>
       <c r="AW7" t="n">
-        <v>-27.78677410312735</v>
+        <v>38.07861845770428</v>
       </c>
       <c r="AX7" t="n">
-        <v>-27.3039527869853</v>
+        <v>520.8999345997563</v>
       </c>
       <c r="AY7" t="n">
-        <v>-27.13185443304377</v>
+        <v>692.9982885412786</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-26.89671675999321</v>
+        <v>928.1359615918395</v>
       </c>
       <c r="BA7" t="n">
-        <v>-26.79486114508439</v>
+        <v>1029.991576500661</v>
       </c>
       <c r="BB7" t="n">
-        <v>-27.83939185615282</v>
+        <v>-14.53913456776728</v>
       </c>
       <c r="BC7" t="n">
-        <v>-27.83229652988233</v>
+        <v>-7.443808297278672</v>
       </c>
       <c r="BD7" t="n">
-        <v>-27.82774050229861</v>
+        <v>-2.887780713561828</v>
       </c>
       <c r="BE7" t="n">
-        <v>-25.00602525023583</v>
+        <v>-19.78672933568101</v>
       </c>
       <c r="BF7" t="n">
-        <v>-25.0084237020189</v>
+        <v>-22.1851811187497</v>
       </c>
       <c r="BG7" t="n">
-        <v>-25.00680880903374</v>
+        <v>-20.57028813359763</v>
       </c>
       <c r="BH7" t="n">
-        <v>-25.0085419799876</v>
+        <v>-22.30345908745501</v>
       </c>
       <c r="BI7" t="n">
-        <v>-25.00814170960467</v>
+        <v>-21.90318870452471</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-24.99813060938031</v>
+        <v>-11.89208848017137</v>
       </c>
       <c r="BK7" t="n">
-        <v>-25.00047250637244</v>
+        <v>-14.23398547229228</v>
       </c>
       <c r="BL7" t="n">
-        <v>-24.99388770613187</v>
+        <v>-7.64918523172857</v>
       </c>
       <c r="BM7" t="n">
-        <v>-24.91877887256965</v>
+        <v>67.45964833049109</v>
       </c>
       <c r="BN7" t="n">
-        <v>-24.91777315854896</v>
+        <v>68.46536235118502</v>
       </c>
       <c r="BO7" t="n">
-        <v>-24.86075771178987</v>
+        <v>125.4808091102788</v>
       </c>
       <c r="BP7" t="n">
-        <v>-24.84867080002063</v>
+        <v>137.567720879513</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-9.578161882796405</v>
+        <v>15853.14956479397</v>
       </c>
       <c r="BR7" t="n">
-        <v>35.94025927778009</v>
+        <v>61371.57072537046</v>
       </c>
     </row>
     <row r="8">
@@ -2428,211 +2428,211 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.09802388333592</v>
+        <v>15275.92319293118</v>
       </c>
       <c r="C9" t="n">
-        <v>13.89322218467376</v>
+        <v>16071.12149426902</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.143748338906776</v>
+        <v>1034.150970688485</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.346405507856776</v>
+        <v>-3168.506198261516</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.122429568486095</v>
+        <v>55.46974110916513</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.244444704987354</v>
+        <v>-4066.545395392094</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.369279193420332</v>
+        <v>-191.3798838250719</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.092769101452564</v>
+        <v>1085.130208142696</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.142505052072889</v>
+        <v>1035.394257522372</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.237752137191345</v>
+        <v>940.147172403916</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.053942518149721</v>
+        <v>1123.95679144554</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.097566173674272</v>
+        <v>80.33313592098827</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.712587035999879</v>
+        <v>465.3122735953816</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.384328694336868</v>
+        <v>793.5706152583925</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.8717834822660888</v>
+        <v>1306.115827329172</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.9278418901200749</v>
+        <v>1250.057419475186</v>
       </c>
       <c r="R9" t="n">
-        <v>-2.061522802526854</v>
+        <v>116.3765070684069</v>
       </c>
       <c r="S9" t="n">
-        <v>-1.630245255221472</v>
+        <v>547.654054373789</v>
       </c>
       <c r="T9" t="n">
-        <v>-2.181943325009799</v>
+        <v>-4.044015414537855</v>
       </c>
       <c r="U9" t="n">
-        <v>-2.186675465636259</v>
+        <v>-8.776156040998556</v>
       </c>
       <c r="V9" t="n">
-        <v>-2.348915389414854</v>
+        <v>4.921167135459186</v>
       </c>
       <c r="W9" t="n">
-        <v>-2.269999163818598</v>
+        <v>83.83739273171538</v>
       </c>
       <c r="X9" t="n">
-        <v>-2.358419305914998</v>
+        <v>-4.582749364684285</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.345600361048509</v>
+        <v>8.236195501804069</v>
       </c>
       <c r="Z9" t="n">
-        <v>-2.056552469113859</v>
+        <v>297.2840874364542</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.9051446282740663</v>
+        <v>1448.691928276247</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.01889690104854447</v>
+        <v>2334.939655501769</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.397791726325933</v>
+        <v>2751.628282876246</v>
       </c>
       <c r="AD9" t="n">
-        <v>-2.341199686825433</v>
+        <v>12.63686972488028</v>
       </c>
       <c r="AE9" t="n">
-        <v>-2.108529696665618</v>
+        <v>245.3068598846955</v>
       </c>
       <c r="AF9" t="n">
-        <v>-2.34552774927664</v>
+        <v>8.308807273673544</v>
       </c>
       <c r="AG9" t="n">
-        <v>-2.637930897154394</v>
+        <v>19.66364010450436</v>
       </c>
       <c r="AH9" t="n">
-        <v>-2.635947875868943</v>
+        <v>21.64666138995554</v>
       </c>
       <c r="AI9" t="n">
-        <v>-2.620978495199622</v>
+        <v>36.61604205927675</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-2.649064820117423</v>
+        <v>8.529717141476091</v>
       </c>
       <c r="AK9" t="n">
-        <v>-2.598228881202057</v>
+        <v>59.36565605684106</v>
       </c>
       <c r="AL9" t="n">
-        <v>-2.540698469533413</v>
+        <v>116.896067725485</v>
       </c>
       <c r="AM9" t="n">
-        <v>-2.499548986832668</v>
+        <v>158.0455504262302</v>
       </c>
       <c r="AN9" t="n">
-        <v>-2.367545970196426</v>
+        <v>290.048567062472</v>
       </c>
       <c r="AO9" t="n">
-        <v>-2.233788107378285</v>
+        <v>423.8064298806131</v>
       </c>
       <c r="AP9" t="n">
-        <v>-2.043748139088306</v>
+        <v>613.8463981705918</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-1.40090996466109</v>
+        <v>1256.684572597808</v>
       </c>
       <c r="AR9" t="n">
-        <v>12.68946856194179</v>
+        <v>15604.11227206087</v>
       </c>
       <c r="AS9" t="n">
-        <v>13.3834686688351</v>
+        <v>16298.11237895417</v>
       </c>
       <c r="AT9" t="n">
-        <v>-2.688474690343429</v>
+        <v>226.1690197756463</v>
       </c>
       <c r="AU9" t="n">
-        <v>-2.73878938320962</v>
+        <v>175.8543269094555</v>
       </c>
       <c r="AV9" t="n">
-        <v>-2.732202536479919</v>
+        <v>182.4411736391567</v>
       </c>
       <c r="AW9" t="n">
-        <v>-2.863080329709463</v>
+        <v>51.56338040961211</v>
       </c>
       <c r="AX9" t="n">
-        <v>-2.894543320666777</v>
+        <v>20.10038945229821</v>
       </c>
       <c r="AY9" t="n">
-        <v>-2.89211560930871</v>
+        <v>22.52810081036564</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-2.851465577725528</v>
+        <v>63.17813239354686</v>
       </c>
       <c r="BA9" t="n">
-        <v>-2.846595192426414</v>
+        <v>68.04851769266112</v>
       </c>
       <c r="BB9" t="n">
-        <v>-2.902942039002947</v>
+        <v>11.70167111612813</v>
       </c>
       <c r="BC9" t="n">
-        <v>-2.811723793694644</v>
+        <v>102.9199164244313</v>
       </c>
       <c r="BD9" t="n">
-        <v>-2.802103962785402</v>
+        <v>112.5397473336731</v>
       </c>
       <c r="BE9" t="n">
-        <v>-2.568261884062344</v>
+        <v>-0.7450903628268961</v>
       </c>
       <c r="BF9" t="n">
-        <v>-2.572007157254038</v>
+        <v>-4.490363554520313</v>
       </c>
       <c r="BG9" t="n">
-        <v>-2.570848248326781</v>
+        <v>-3.331454627263312</v>
       </c>
       <c r="BH9" t="n">
-        <v>-2.568562735867501</v>
+        <v>-1.045942167983482</v>
       </c>
       <c r="BI9" t="n">
-        <v>-2.573233323452053</v>
+        <v>-5.716529752535211</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-2.524153320652213</v>
+        <v>43.36347304730437</v>
       </c>
       <c r="BK9" t="n">
-        <v>-2.5598099002561</v>
+        <v>7.70689344341727</v>
       </c>
       <c r="BL9" t="n">
-        <v>-2.562523134885566</v>
+        <v>4.993658813951265</v>
       </c>
       <c r="BM9" t="n">
-        <v>-2.567726370376793</v>
+        <v>-0.2095766772754919</v>
       </c>
       <c r="BN9" t="n">
-        <v>-2.570019719587352</v>
+        <v>-2.502925887834194</v>
       </c>
       <c r="BO9" t="n">
-        <v>-2.457997625514539</v>
+        <v>109.5191681849785</v>
       </c>
       <c r="BP9" t="n">
-        <v>-2.504635614780376</v>
+        <v>62.88117891914096</v>
       </c>
       <c r="BQ9" t="n">
-        <v>12.73618808656821</v>
+        <v>15420.17019296267</v>
       </c>
       <c r="BR9" t="n">
-        <v>13.56360256362228</v>
+        <v>16247.58467001674</v>
       </c>
     </row>
     <row r="10">
